--- a/DatasetObesidad.xlsx
+++ b/DatasetObesidad.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\proyecto_final\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F70A498-3E0C-47AA-B73E-5BBBBC7CCB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF953546-3884-4404-96E3-13970D8CB52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{96BBAD93-AADB-435A-859C-7C5084C3F1B0}"/>
   </bookViews>
